--- a/KH Macro code maker.xlsx
+++ b/KH Macro code maker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JW\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F086C496-C3FA-49CB-A31C-5674D18B85B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAC1810-3C50-4388-8EF9-83F552900030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{588F13DF-23BD-4AD9-AAC6-80D46F6F0B9F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{588F13DF-23BD-4AD9-AAC6-80D46F6F0B9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Shortcuts Input" sheetId="1" r:id="rId1"/>
@@ -952,7 +952,7 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -1197,7 +1197,7 @@
     #(0,3): (Keycode.CONTROL,),
     #(1,3): (Keycode.ENTER,),
     #(2,3): (Keycode.ENTER,),
-    (3,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.ESCAPE),      # Task Manager
+    (3,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.ESCAPE)      # Task Manager
 }
 keypad = RGBKeypad()
 kbd = Keyboard(usb_hid.devices)
@@ -1237,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114499EF-971A-4DEE-A695-42A3795865ED}">
   <dimension ref="A1:A58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31:L1048481"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,8 +1383,8 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f>_xlfn.CONCAT("    (3,1): (",IF('Shortcuts Input'!B17=",","","Keycode."),_xlfn.TEXTJOIN(", Keycode.",1,'Shortcuts Input'!B17:D17),"),      # Task Manager")</f>
-        <v xml:space="preserve">    (3,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.ESCAPE),      # Task Manager</v>
+        <f>_xlfn.CONCAT("    (3,1): (",IF('Shortcuts Input'!B17=",","","Keycode."),_xlfn.TEXTJOIN(", Keycode.",1,'Shortcuts Input'!B17:D17),")      # Task Manager")</f>
+        <v xml:space="preserve">    (3,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.ESCAPE)      # Task Manager</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">

--- a/KH Macro code maker.xlsx
+++ b/KH Macro code maker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JW\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAC1810-3C50-4388-8EF9-83F552900030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3957A059-9D80-4FC6-97B4-1ECE713BAFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{588F13DF-23BD-4AD9-AAC6-80D46F6F0B9F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{588F13DF-23BD-4AD9-AAC6-80D46F6F0B9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Shortcuts Input" sheetId="1" r:id="rId1"/>
@@ -952,8 +952,8 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +980,7 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1022,7 +1022,7 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,14 +1182,14 @@
 white = (255,255,255)
 black = (0,0,0)
 KEYBOARD_MAP = {
-    (0,0): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.V),      # Start/Stop Video
-    (1,0): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.N),      # Change Camera
-    (2,0): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.Z),      # Mute/Unmute Self
-    (3,0): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.L),      # Mute/Unmute All
-    (0,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.Q),      # Start/Stop Screenshare
-    (1,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.P),      # Show/Hide Floating Controls
-    (2,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.C),      # Chat Panel
-    (3,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.B),      # Participant Panel
+    (0,0): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.ONE),      # Start/Stop Video
+    (1,0): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.TWO),      # Change Camera
+    (2,0): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.FOUR),      # Mute/Unmute Self
+    (3,0): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.FIVE),      # Mute/Unmute All
+    (0,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.SEVEN),      # Start/Stop Screenshare
+    (1,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.EIGHT),      # Show/Hide Floating Controls
+    (2,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.SIX),      # Chat Panel
+    (3,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.THREE),      # Participant Panel
     #(0,2): (Keycode.SHIFT, Keycode.E,),
     #(1,2): (Keycode.R,),
     #(2,2): (Keycode.E,),
@@ -1237,7 +1237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114499EF-971A-4DEE-A695-42A3795865ED}">
   <dimension ref="A1:A58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -1301,49 +1301,49 @@
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>_xlfn.CONCAT("    (0,0): (",IF('Shortcuts Input'!B2=",","","Keycode."),_xlfn.TEXTJOIN(", Keycode.",1,'Shortcuts Input'!B2:D2),"),      # Start/Stop Video")</f>
-        <v xml:space="preserve">    (0,0): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.V),      # Start/Stop Video</v>
+        <v xml:space="preserve">    (0,0): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.ONE),      # Start/Stop Video</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>_xlfn.CONCAT("    (1,0): (",IF('Shortcuts Input'!B3=",","","Keycode."),_xlfn.TEXTJOIN(", Keycode.",1,'Shortcuts Input'!B3:D3),"),      # Change Camera")</f>
-        <v xml:space="preserve">    (1,0): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.N),      # Change Camera</v>
+        <v xml:space="preserve">    (1,0): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.TWO),      # Change Camera</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>_xlfn.CONCAT("    (2,0): (",IF('Shortcuts Input'!B4=",","","Keycode."),_xlfn.TEXTJOIN(", Keycode.",1,'Shortcuts Input'!B4:D4),"),      # Mute/Unmute Self")</f>
-        <v xml:space="preserve">    (2,0): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.Z),      # Mute/Unmute Self</v>
+        <v xml:space="preserve">    (2,0): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.FOUR),      # Mute/Unmute Self</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>_xlfn.CONCAT("    (3,0): (",IF('Shortcuts Input'!B5=",","","Keycode."),_xlfn.TEXTJOIN(", Keycode.",1,'Shortcuts Input'!B5:D5),"),      # Mute/Unmute All")</f>
-        <v xml:space="preserve">    (3,0): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.L),      # Mute/Unmute All</v>
+        <v xml:space="preserve">    (3,0): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.FIVE),      # Mute/Unmute All</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("    (0,1): (",IF('Shortcuts Input'!B6=",","","Keycode."),_xlfn.TEXTJOIN(", Keycode.",1,'Shortcuts Input'!B6:D6),"),      # Start/Stop Screenshare")</f>
-        <v xml:space="preserve">    (0,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.Q),      # Start/Stop Screenshare</v>
+        <v xml:space="preserve">    (0,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.SEVEN),      # Start/Stop Screenshare</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>_xlfn.CONCAT("    (1,1): (",IF('Shortcuts Input'!B7=",","","Keycode."),_xlfn.TEXTJOIN(", Keycode.",1,'Shortcuts Input'!B7:D7),"),      # Show/Hide Floating Controls")</f>
-        <v xml:space="preserve">    (1,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.P),      # Show/Hide Floating Controls</v>
+        <v xml:space="preserve">    (1,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.EIGHT),      # Show/Hide Floating Controls</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>_xlfn.CONCAT("    (2,1): (",IF('Shortcuts Input'!B8=",","","Keycode."),_xlfn.TEXTJOIN(", Keycode.",1,'Shortcuts Input'!B8:D8),"),      # Chat Panel")</f>
-        <v xml:space="preserve">    (2,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.C),      # Chat Panel</v>
+        <v xml:space="preserve">    (2,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.SIX),      # Chat Panel</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>_xlfn.CONCAT("    (3,1): (",IF('Shortcuts Input'!B9=",","","Keycode."),_xlfn.TEXTJOIN(", Keycode.",1,'Shortcuts Input'!B9:D9),"),      # Participant Panel")</f>
-        <v xml:space="preserve">    (3,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.B),      # Participant Panel</v>
+        <v xml:space="preserve">    (3,1): (Keycode.LEFT_CONTROL, Keycode.SHIFT, Keycode.THREE),      # Participant Panel</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
